--- a/biology/Botanique/Lonchocarpus_heptaphyllus/Lonchocarpus_heptaphyllus.xlsx
+++ b/biology/Botanique/Lonchocarpus_heptaphyllus/Lonchocarpus_heptaphyllus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lonchocarpus heptaphyllus est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique du Sud.
@@ -513,28 +525,30 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Amerimnon latifolium Willd[1].
-Cytisus membranaceus Sessé &amp; Moc[1].
-Dalbergia heptaphylla Poir[1].
-Dalbergia pentaphylla Poir[1].
-Derris latifolia (DC.) Ducke[1]
-Derris nicou (Aubl.) J.F.Macbr[1].
-Lonchocarpus discolor Huber[1]
-Lonchocarpus latifolius (Willd.) DC.[1]
-Lonchocarpus latifolius var. violascens Benth. ex Hemsl[1].
-Lonchocarpus nicou (Aubl.) DC.[1]
-Lonchocarpus nicou var. typicus F.J.Herm[1].
-Lonchocarpus oxycarpus DC.[1]
-Lonchocarpus pentaphyllus (Poir.) DC.[1]
-Lonchocarpus scandens (Willd.) Donn[1]
-Lonchocarpus swartzii DC.[1]
-Pterocarpus latifolius (Willd.) Poir[1].
-Robinia nicou Aubl[1],[2].
-Robinia scandens Willd[1].
-Robinia sepium Sw[1].
+Amerimnon latifolium Willd.
+Cytisus membranaceus Sessé &amp; Moc.
+Dalbergia heptaphylla Poir.
+Dalbergia pentaphylla Poir.
+Derris latifolia (DC.) Ducke
+Derris nicou (Aubl.) J.F.Macbr.
+Lonchocarpus discolor Huber
+Lonchocarpus latifolius (Willd.) DC.
+Lonchocarpus latifolius var. violascens Benth. ex Hemsl.
+Lonchocarpus nicou (Aubl.) DC.
+Lonchocarpus nicou var. typicus F.J.Herm.
+Lonchocarpus oxycarpus DC.
+Lonchocarpus pentaphyllus (Poir.) DC.
+Lonchocarpus scandens (Willd.) Donn
+Lonchocarpus swartzii DC.
+Pterocarpus latifolius (Willd.) Poir.
+Robinia nicou Aubl,.
+Robinia scandens Willd.
+Robinia sepium Sw.
 </t>
         </is>
       </c>
@@ -563,9 +577,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forêt du Brésil, Colombie, Venezuela, Guyanes, Panama jusqu'au sud du Mexique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forêt du Brésil, Colombie, Venezuela, Guyanes, Panama jusqu'au sud du Mexique.
 </t>
         </is>
       </c>
@@ -594,7 +610,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hauteur : 15 m.
 </t>
